--- a/1-course/Физика/ЛР Разряд и Заряд конденсатора.xlsx
+++ b/1-course/Физика/ЛР Разряд и Заряд конденсатора.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Portfolio\1 курс\Физика\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Portfolio\1-course\Физика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D40C405-B0C5-459E-9770-1CFFE89E166C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64A5456-CD5B-4199-BEFE-A2AB070D5696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{123E532F-40CB-4E77-8C1E-492AF3BFCA46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{123E532F-40CB-4E77-8C1E-492AF3BFCA46}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Разряд</t>
   </si>
@@ -51,10 +51,22 @@
     <t>Iзар</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
+    <t>Iраз(t)</t>
   </si>
   <si>
-    <t>V</t>
+    <t>Iзар(t)</t>
+  </si>
+  <si>
+    <t>Vраз</t>
+  </si>
+  <si>
+    <t>Vзар</t>
+  </si>
+  <si>
+    <t>R, Ом</t>
+  </si>
+  <si>
+    <t>По формуле Ома</t>
   </si>
 </sst>
 </file>
@@ -71,7 +83,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,8 +102,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -277,19 +295,6 @@
       <top/>
       <bottom style="thin">
         <color theme="6" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -374,11 +379,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -396,6 +542,17 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -405,18 +562,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -434,10 +594,2450 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0742833616386186E-2"/>
+          <c:y val="4.0740740740740744E-2"/>
+          <c:w val="0.90857742782152229"/>
+          <c:h val="0.82489472149314669"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>VРаз</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$5:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$5:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B5F3-4CC9-A2EC-FA2C86BC92A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>VЗар</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$E$5:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$5:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.3099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.72</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.8600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.93</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.97</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B5F3-4CC9-A2EC-FA2C86BC92A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="457091743"/>
+        <c:axId val="457091263"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="457091743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>t,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" i="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>сек</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.87633863414132052"/>
+              <c:y val="0.78488830562846312"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457091263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="457091263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>V,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" i="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>В</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100" b="1" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.2745098039215685E-2"/>
+              <c:y val="5.7493438320209964E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457091743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Iзар</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$E$5:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$J$5:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.3099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.72</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.8600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.93</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.97</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2C07-4F28-8500-1F9128DD608F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Iраз</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$5:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$I$5:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2C07-4F28-8500-1F9128DD608F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="591661167"/>
+        <c:axId val="591657807"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="591661167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591657807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="591657807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591661167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BDA7EFE-3077-E000-EF46-8CE10905BD88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A55745B1-B933-3999-DF6C-652B5904FA5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -475,7 +3075,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -581,7 +3181,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -723,7 +3323,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -731,58 +3331,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E09769F-026A-4573-8F58-65C9D15F3CFB}">
-  <dimension ref="B2:I25"/>
+  <dimension ref="B2:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="11" t="s">
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="I3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="I4" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="14">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="14">
+      <c r="C5" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.69</v>
+      </c>
+      <c r="E5" s="11">
         <v>1</v>
       </c>
       <c r="F5" s="9">
@@ -792,14 +3406,26 @@
         <f>73/100</f>
         <v>0.73</v>
       </c>
+      <c r="I5" s="35">
+        <f>C5/$C$22</f>
+        <v>4.88</v>
+      </c>
+      <c r="J5" s="33">
+        <f>F5/$C$22</f>
+        <v>0.62</v>
+      </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="15">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12">
         <v>3</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="15">
+      <c r="C6" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="E6" s="12">
         <v>2</v>
       </c>
       <c r="F6" s="10">
@@ -809,14 +3435,26 @@
         <f>80/100</f>
         <v>0.8</v>
       </c>
+      <c r="I6" s="33">
+        <f t="shared" ref="I6:I20" si="0">C6/$C$22</f>
+        <v>3.3</v>
+      </c>
+      <c r="J6" s="33">
+        <f t="shared" ref="J6:J24" si="1">F6/$C$22</f>
+        <v>1.38</v>
+      </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="14">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="14">
+      <c r="C7" s="1">
+        <v>2.38</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.49</v>
+      </c>
+      <c r="E7" s="11">
         <v>3</v>
       </c>
       <c r="F7" s="10">
@@ -827,14 +3465,26 @@
         <f>68/100</f>
         <v>0.68</v>
       </c>
+      <c r="I7" s="33">
+        <f t="shared" si="0"/>
+        <v>2.38</v>
+      </c>
+      <c r="J7" s="33">
+        <f t="shared" si="1"/>
+        <v>1.99</v>
+      </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="15">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="12">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="15">
+      <c r="C8" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.35</v>
+      </c>
+      <c r="E8" s="12">
         <v>4</v>
       </c>
       <c r="F8" s="10">
@@ -844,14 +3494,26 @@
         <f>58/100</f>
         <v>0.57999999999999996</v>
       </c>
+      <c r="I8" s="33">
+        <f t="shared" si="0"/>
+        <v>1.73</v>
+      </c>
+      <c r="J8" s="33">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="14">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="11">
         <v>9</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="14">
+      <c r="C9" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="E9" s="11">
         <v>5</v>
       </c>
       <c r="F9" s="10">
@@ -861,14 +3523,26 @@
         <f>48/100</f>
         <v>0.48</v>
       </c>
+      <c r="I9" s="33">
+        <f t="shared" si="0"/>
+        <v>1.27</v>
+      </c>
+      <c r="J9" s="33">
+        <f t="shared" si="1"/>
+        <v>2.91</v>
+      </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="15">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12">
         <v>11</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="15">
+      <c r="C10" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.18</v>
+      </c>
+      <c r="E10" s="12">
         <v>6</v>
       </c>
       <c r="F10" s="10">
@@ -878,14 +3552,26 @@
         <f>41/100</f>
         <v>0.41</v>
       </c>
+      <c r="I10" s="33">
+        <f t="shared" si="0"/>
+        <v>0.94</v>
+      </c>
+      <c r="J10" s="33">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="14">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="11">
         <v>13</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="14">
+      <c r="C11" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="E11" s="11">
         <v>7</v>
       </c>
       <c r="F11" s="10">
@@ -895,14 +3581,26 @@
         <f>35/100</f>
         <v>0.35</v>
       </c>
+      <c r="I11" s="33">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="J11" s="33">
+        <f t="shared" si="1"/>
+        <v>3.55</v>
+      </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="15">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12">
         <v>15</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="15">
+      <c r="C12" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="E12" s="12">
         <v>8</v>
       </c>
       <c r="F12" s="10">
@@ -912,14 +3610,26 @@
         <f>30/100</f>
         <v>0.3</v>
       </c>
+      <c r="I12" s="33">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="J12" s="33">
+        <f t="shared" si="1"/>
+        <v>3.79</v>
+      </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="14">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="11">
         <v>17</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="14">
+      <c r="C13" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="D13" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E13" s="11">
         <v>9</v>
       </c>
       <c r="F13" s="10">
@@ -929,14 +3639,26 @@
         <f>25/100</f>
         <v>0.25</v>
       </c>
+      <c r="I13" s="33">
+        <f t="shared" si="0"/>
+        <v>0.39</v>
+      </c>
+      <c r="J13" s="33">
+        <f t="shared" si="1"/>
+        <v>3.99</v>
+      </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="15">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="12">
         <v>19</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="15">
+      <c r="C14" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="12">
         <v>10</v>
       </c>
       <c r="F14" s="10">
@@ -946,14 +3668,26 @@
         <f>21/100</f>
         <v>0.21</v>
       </c>
+      <c r="I14" s="33">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="J14" s="33">
+        <f t="shared" si="1"/>
+        <v>4.17</v>
+      </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="14">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="11">
         <v>21</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="14">
+      <c r="C15" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="E15" s="11">
         <v>11</v>
       </c>
       <c r="F15" s="10">
@@ -963,17 +3697,26 @@
         <f>18/100</f>
         <v>0.18</v>
       </c>
-      <c r="I15" t="s">
-        <v>5</v>
+      <c r="I15" s="33">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="J15" s="33">
+        <f t="shared" si="1"/>
+        <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="15">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
         <v>23</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="15">
+      <c r="C16" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="E16" s="12">
         <v>12</v>
       </c>
       <c r="F16" s="10">
@@ -983,14 +3726,26 @@
         <f>15/100</f>
         <v>0.15</v>
       </c>
+      <c r="I16" s="33">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="J16" s="33">
+        <f t="shared" si="1"/>
+        <v>4.4400000000000004</v>
+      </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="14">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="11">
         <v>25</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="14">
+      <c r="C17" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E17" s="11">
         <v>13</v>
       </c>
       <c r="F17" s="10">
@@ -1000,14 +3755,26 @@
         <f>13/100</f>
         <v>0.13</v>
       </c>
+      <c r="I17" s="33">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J17" s="33">
+        <f t="shared" si="1"/>
+        <v>4.55</v>
+      </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="15">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
         <v>27</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="15">
+      <c r="C18" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="E18" s="12">
         <v>14</v>
       </c>
       <c r="F18" s="10">
@@ -1017,14 +3784,26 @@
         <f>11/100</f>
         <v>0.11</v>
       </c>
+      <c r="I18" s="33">
+        <f t="shared" si="0"/>
+        <v>0.11</v>
+      </c>
+      <c r="J18" s="33">
+        <f t="shared" si="1"/>
+        <v>4.6399999999999997</v>
+      </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="14">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="11">
         <v>29</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="14">
+      <c r="C19" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="D19" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E19" s="11">
         <v>15</v>
       </c>
       <c r="F19" s="10">
@@ -1034,82 +3813,113 @@
         <f>10/100</f>
         <v>0.1</v>
       </c>
+      <c r="I19" s="33">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="J19" s="33">
+        <f t="shared" si="1"/>
+        <v>4.72</v>
+      </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="15">
-        <v>31</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="15">
+    <row r="20" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="25">
+        <v>30</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="D20" s="18">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E20" s="12">
         <v>16</v>
       </c>
       <c r="F20" s="10">
-        <v>4.76</v>
+        <v>4.8</v>
       </c>
       <c r="G20" s="2">
         <f>8/100</f>
         <v>0.08</v>
       </c>
+      <c r="I20" s="33">
+        <f>C20/$C$22</f>
+        <v>0.08</v>
+      </c>
+      <c r="J20" s="33">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="14">
-        <v>33</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="14">
+    <row r="21" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="11">
         <v>17</v>
       </c>
       <c r="F21" s="10">
-        <v>4.82</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="G21" s="2">
         <f>7/100</f>
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="I21" s="36"/>
+      <c r="J21" s="33">
+        <f t="shared" si="1"/>
+        <v>4.8600000000000003</v>
+      </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="15">
-        <v>35</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="15">
+    <row r="22" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="30">
+        <v>1</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="12">
         <v>18</v>
       </c>
       <c r="F22" s="10">
-        <v>4.88</v>
+        <v>4.93</v>
       </c>
       <c r="G22" s="2">
         <f>7/100</f>
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="I22" s="36"/>
+      <c r="J22" s="33">
+        <f t="shared" si="1"/>
+        <v>4.93</v>
+      </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="14">
-        <v>37</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="14">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="11">
         <v>19</v>
       </c>
       <c r="F23" s="10">
-        <v>4.99</v>
+        <v>4.97</v>
       </c>
       <c r="G23" s="2">
         <f>6/100</f>
         <v>0.06</v>
       </c>
+      <c r="I23" s="36"/>
+      <c r="J23" s="33">
+        <f t="shared" si="1"/>
+        <v>4.97</v>
+      </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="15">
-        <v>39</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="15">
+    <row r="24" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="12">
         <v>20</v>
       </c>
       <c r="F24" s="10">
@@ -1119,22 +3929,27 @@
         <f>4/100</f>
         <v>0.04</v>
       </c>
+      <c r="I24" s="37"/>
+      <c r="J24" s="34">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="25" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="16">
-        <v>41</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
+    <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="B3:D3"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>